--- a/teaching/traditional_assets/database/data/lithuania/lithuania_engineering_construction.xlsx
+++ b/teaching/traditional_assets/database/data/lithuania/lithuania_engineering_construction.xlsx
@@ -591,43 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0557</v>
+        <v>-0.0545</v>
       </c>
       <c r="G2">
-        <v>-0.002370550161812298</v>
+        <v>0.006754068716094033</v>
       </c>
       <c r="H2">
-        <v>-0.002370550161812298</v>
+        <v>0.006754068716094033</v>
       </c>
       <c r="I2">
-        <v>-0.01723300970873786</v>
+        <v>-0.02305605786618445</v>
       </c>
       <c r="J2">
-        <v>-0.01723300970873786</v>
+        <v>-0.02305605786618445</v>
       </c>
       <c r="K2">
-        <v>-2.85</v>
+        <v>-13.9</v>
       </c>
       <c r="L2">
-        <v>-0.02305825242718447</v>
+        <v>-0.1256781193490054</v>
       </c>
       <c r="M2">
-        <v>0.003</v>
+        <v>0.549</v>
       </c>
       <c r="N2">
-        <v>0.0002173913043478261</v>
+        <v>0.04815789473684211</v>
       </c>
       <c r="O2">
-        <v>-0.001052631578947368</v>
+        <v>-0.03949640287769784</v>
       </c>
       <c r="P2">
-        <v>0.003</v>
+        <v>0.549</v>
       </c>
       <c r="Q2">
-        <v>0.0002173913043478261</v>
+        <v>0.04815789473684211</v>
       </c>
       <c r="R2">
-        <v>-0.001052631578947368</v>
+        <v>-0.03949640287769784</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,70 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>9.24</v>
+        <v>5.35</v>
       </c>
       <c r="V2">
-        <v>0.6695652173913044</v>
+        <v>0.469298245614035</v>
       </c>
       <c r="W2">
-        <v>-0.0673758865248227</v>
+        <v>-0.3518987341772152</v>
       </c>
       <c r="X2">
-        <v>0.1078469449107359</v>
+        <v>0.1132496740213998</v>
       </c>
       <c r="Y2">
-        <v>-0.1752228314355586</v>
+        <v>-0.465148408198615</v>
       </c>
       <c r="Z2">
-        <v>5.060181773520021</v>
+        <v>2.642140468227425</v>
       </c>
       <c r="AA2">
-        <v>-0.08720216163104889</v>
+        <v>-0.06091734352603918</v>
       </c>
       <c r="AB2">
-        <v>0.07343525321195334</v>
+        <v>0.06001289839764713</v>
       </c>
       <c r="AC2">
-        <v>-0.1606374148430022</v>
+        <v>-0.1209302419236863</v>
       </c>
       <c r="AD2">
-        <v>11.6</v>
+        <v>17.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.6</v>
+        <v>17.5</v>
       </c>
       <c r="AG2">
-        <v>2.359999999999999</v>
+        <v>12.15</v>
       </c>
       <c r="AH2">
-        <v>0.4566929133858268</v>
+        <v>0.6055363321799309</v>
       </c>
       <c r="AI2">
-        <v>0.2222222222222222</v>
+        <v>0.3995433789954338</v>
       </c>
       <c r="AJ2">
-        <v>0.146039603960396</v>
+        <v>0.5159235668789809</v>
       </c>
       <c r="AK2">
-        <v>0.05493482309124766</v>
+        <v>0.3159947984395318</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>4.98</v>
       </c>
       <c r="AM2">
-        <v>-2.2</v>
+        <v>4.98</v>
       </c>
       <c r="AN2">
-        <v>-23.29317269076305</v>
+        <v>-18.79699248120301</v>
+      </c>
+      <c r="AO2">
+        <v>-0.5120481927710843</v>
       </c>
       <c r="AP2">
-        <v>-4.738955823293171</v>
+        <v>-13.05048335123523</v>
       </c>
       <c r="AQ2">
-        <v>0.968181818181818</v>
+        <v>-0.5120481927710843</v>
       </c>
     </row>
     <row r="3">
@@ -719,43 +722,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0557</v>
+        <v>-0.0545</v>
       </c>
       <c r="G3">
-        <v>-0.002370550161812298</v>
+        <v>0.006754068716094033</v>
       </c>
       <c r="H3">
-        <v>-0.002370550161812298</v>
+        <v>0.006754068716094033</v>
       </c>
       <c r="I3">
-        <v>-0.01723300970873786</v>
+        <v>-0.02305605786618445</v>
       </c>
       <c r="J3">
-        <v>-0.01723300970873786</v>
+        <v>-0.02305605786618445</v>
       </c>
       <c r="K3">
-        <v>-2.85</v>
+        <v>-13.9</v>
       </c>
       <c r="L3">
-        <v>-0.02305825242718447</v>
+        <v>-0.1256781193490054</v>
       </c>
       <c r="M3">
-        <v>0.003</v>
+        <v>0.549</v>
       </c>
       <c r="N3">
-        <v>0.0002173913043478261</v>
+        <v>0.04815789473684211</v>
       </c>
       <c r="O3">
-        <v>-0.001052631578947368</v>
+        <v>-0.03949640287769784</v>
       </c>
       <c r="P3">
-        <v>0.003</v>
+        <v>0.549</v>
       </c>
       <c r="Q3">
-        <v>0.0002173913043478261</v>
+        <v>0.04815789473684211</v>
       </c>
       <c r="R3">
-        <v>-0.001052631578947368</v>
+        <v>-0.03949640287769784</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -764,70 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>9.24</v>
+        <v>5.35</v>
       </c>
       <c r="V3">
-        <v>0.6695652173913044</v>
+        <v>0.469298245614035</v>
       </c>
       <c r="W3">
-        <v>-0.0673758865248227</v>
+        <v>-0.3518987341772152</v>
       </c>
       <c r="X3">
-        <v>0.1078469449107359</v>
+        <v>0.1132496740213998</v>
       </c>
       <c r="Y3">
-        <v>-0.1752228314355586</v>
+        <v>-0.465148408198615</v>
       </c>
       <c r="Z3">
-        <v>5.060181773520021</v>
+        <v>2.642140468227425</v>
       </c>
       <c r="AA3">
-        <v>-0.08720216163104889</v>
+        <v>-0.06091734352603918</v>
       </c>
       <c r="AB3">
-        <v>0.07343525321195334</v>
+        <v>0.06001289839764713</v>
       </c>
       <c r="AC3">
-        <v>-0.1606374148430022</v>
+        <v>-0.1209302419236863</v>
       </c>
       <c r="AD3">
-        <v>11.6</v>
+        <v>17.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.6</v>
+        <v>17.5</v>
       </c>
       <c r="AG3">
-        <v>2.359999999999999</v>
+        <v>12.15</v>
       </c>
       <c r="AH3">
-        <v>0.4566929133858268</v>
+        <v>0.6055363321799309</v>
       </c>
       <c r="AI3">
-        <v>0.2222222222222222</v>
+        <v>0.3995433789954338</v>
       </c>
       <c r="AJ3">
-        <v>0.146039603960396</v>
+        <v>0.5159235668789809</v>
       </c>
       <c r="AK3">
-        <v>0.05493482309124766</v>
+        <v>0.3159947984395318</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>4.98</v>
       </c>
       <c r="AM3">
-        <v>-2.2</v>
+        <v>4.98</v>
       </c>
       <c r="AN3">
-        <v>-23.29317269076305</v>
+        <v>-18.79699248120301</v>
+      </c>
+      <c r="AO3">
+        <v>-0.5120481927710843</v>
       </c>
       <c r="AP3">
-        <v>-4.738955823293171</v>
+        <v>-13.05048335123523</v>
       </c>
       <c r="AQ3">
-        <v>0.968181818181818</v>
+        <v>-0.5120481927710843</v>
       </c>
     </row>
   </sheetData>
